--- a/doc/palabras claves.xlsx
+++ b/doc/palabras claves.xlsx
@@ -259,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,12 +442,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,10 +606,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -961,7 +954,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,7 +1038,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6">
